--- a/results/march.xlsx
+++ b/results/march.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="march" sheetId="1" r:id="rId1"/>
@@ -189,16 +189,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -212,12 +204,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -253,23 +239,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,20 +543,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>49</v>
       </c>
@@ -589,28 +597,24 @@
       <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -619,32 +623,30 @@
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="b">
-        <v>1</v>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -659,29 +661,27 @@
         <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -704,17 +704,15 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="b">
+      <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
@@ -724,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -733,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -741,21 +739,19 @@
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -767,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -778,55 +774,51 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="b">
+      <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -852,18 +844,16 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="b">
-        <v>1</v>
+      <c r="C10" t="b">
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -872,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -889,18 +879,16 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
+      <c r="C11" t="b">
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -909,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -918,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -926,17 +914,15 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
@@ -949,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -958,23 +944,21 @@
         <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1000,21 +984,19 @@
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1037,17 +1019,15 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="b">
+      <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
@@ -1057,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1074,18 +1054,16 @@
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="b">
-        <v>1</v>
+      <c r="C16" t="b">
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1094,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1111,21 +1089,19 @@
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1137,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1148,27 +1124,25 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1177,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1185,17 +1159,15 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="b">
+      <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
@@ -1214,26 +1186,24 @@
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="b">
-        <v>0</v>
+      <c r="C20" t="b">
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1245,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1259,17 +1229,15 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="b">
+      <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
@@ -1291,29 +1259,27 @@
         <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="b">
+      <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1322,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1333,18 +1299,16 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1365,39 +1329,39 @@
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="b">
+      <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1406,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1441,15 +1405,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="b">
-        <v>1</v>
+      <c r="C26" t="b">
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1470,22 +1434,20 @@
         <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="b">
@@ -1495,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1504,66 +1466,62 @@
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
-      <c r="C29" s="1" t="b">
-        <v>1</v>
+      <c r="C29" t="b">
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1586,10 +1544,8 @@
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1600,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1615,21 +1571,21 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1638,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1650,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -1659,15 +1615,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1682,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1702,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1717,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1734,7 +1690,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -1772,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1787,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -1804,22 +1760,22 @@
         <v>6</v>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -1845,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -1860,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -1874,10 +1830,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1889,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1921,16 +1877,16 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -1944,19 +1900,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2000,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -2020,34 +1976,28 @@
         <v>0</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H43">
-        <f>COUNTIF(H3:H42,"TRUE")</f>
-        <v>31</v>
       </c>
     </row>
   </sheetData>
